--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2163,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2256,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2365,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2458,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2613,10 +2625,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2660,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2706,28 +2718,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2959,10 +2971,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3006,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3052,28 +3064,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3132,10 +3144,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3179,28 +3191,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3225,28 +3237,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3305,10 +3317,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3352,28 +3364,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3398,28 +3410,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3478,10 +3490,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3525,28 +3537,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3571,28 +3583,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4039,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4086,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4132,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4212,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4247,28 +4259,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4305,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4431,10 +4443,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4478,28 +4490,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4524,28 +4536,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4604,10 +4616,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4651,28 +4663,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4697,28 +4709,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4777,10 +4789,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4824,28 +4836,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4870,28 +4882,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4950,10 +4962,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4997,28 +5009,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5043,28 +5055,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5123,10 +5135,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5170,28 +5182,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5216,28 +5228,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5296,10 +5308,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5343,28 +5355,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5389,28 +5401,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5730,10 +5742,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5777,28 +5789,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5823,28 +5835,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5932,10 +5944,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5979,28 +5991,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6025,28 +6037,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6134,10 +6146,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6181,28 +6193,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6227,28 +6239,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6336,10 +6348,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6383,28 +6395,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6429,28 +6441,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6567,10 +6579,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6614,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6660,28 +6672,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6798,10 +6810,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6845,28 +6857,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6891,28 +6903,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7157,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7204,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7250,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7434,10 +7446,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7481,28 +7493,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7527,28 +7539,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7607,10 +7619,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7654,28 +7666,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7700,28 +7712,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7809,10 +7821,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7856,28 +7868,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7902,28 +7914,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8127,10 +8139,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8174,28 +8186,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8220,28 +8232,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8531,10 +8543,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
